--- a/biodownloads/quora/chrY_proteins.xlsx
+++ b/biodownloads/quora/chrY_proteins.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="327">
   <si>
-    <t>Chromosome Y: 239 proteins from 65 out of 74 NCBI protein-coding genes</t>
+    <t>Human Chromosome Y: 239 proteins from 65 out of 74 NCBI protein-coding genes</t>
   </si>
   <si>
     <t>AC</t>

--- a/biodownloads/quora/chrY_proteins.xlsx
+++ b/biodownloads/quora/chrY_proteins.xlsx
@@ -19,10 +19,10 @@
     <t>Human Chromosome Y: 239 proteins from 65 out of 74 NCBI protein-coding genes</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Symbol</t>
+    <t>Protein AC</t>
+  </si>
+  <si>
+    <t>Gene</t>
   </si>
   <si>
     <t>Recommended Protein Name</t>
